--- a/Files/nodes_branches_3.xlsx
+++ b/Files/nodes_branches_3.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\pandapower\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\pandapower\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="2" r:id="rId1"/>
     <sheet name="branch" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>r</t>
   </si>
@@ -79,12 +79,21 @@
   </si>
   <si>
     <t>qmax</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>bsh</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,18 +406,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -445,8 +454,14 @@
       <c r="L1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,8 +498,14 @@
       <c r="L2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -521,8 +542,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -559,8 +583,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -597,8 +624,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -635,8 +665,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -673,8 +706,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -709,6 +745,9 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -725,12 +764,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -753,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -776,7 +815,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -799,7 +838,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -822,7 +861,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -845,7 +884,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -868,7 +907,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -891,7 +930,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -914,7 +953,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>

--- a/Files/nodes_branches_3.xlsx
+++ b/Files/nodes_branches_3.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\pandapower\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\pandapower\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="8832"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="2" r:id="rId1"/>
     <sheet name="branch" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>r</t>
   </si>
@@ -88,12 +88,15 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>ktr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,18 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="G9" sqref="G9:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -461,7 +464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -546,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -628,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -669,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -748,6 +751,88 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
     </row>
@@ -758,18 +843,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H10" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -791,8 +876,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -814,8 +902,11 @@
       <c r="G2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -837,8 +928,11 @@
       <c r="G3">
         <v>-20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -860,8 +954,11 @@
       <c r="G4">
         <v>-15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -883,8 +980,11 @@
       <c r="G5">
         <v>-20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -906,8 +1006,11 @@
       <c r="G6">
         <v>-30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -929,8 +1032,11 @@
       <c r="G7">
         <v>-20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -952,8 +1058,11 @@
       <c r="G8">
         <v>-20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -974,6 +1083,87 @@
       </c>
       <c r="G9">
         <v>-20</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>-50</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Files/nodes_branches_3.xlsx
+++ b/Files/nodes_branches_3.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\pandapower\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\pandapower\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="8835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,16 +411,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -464,7 +464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2479.3000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -736,25 +736,25 @@
         <v>50</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>99.332465193272796</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -845,16 +845,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A10:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -880,7 +880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1131,16 +1131,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H11">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1157,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>9.0999999999999998E-2</v>

--- a/Files/nodes_branches_3.xlsx
+++ b/Files/nodes_branches_3.xlsx
@@ -127,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,7 +413,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>52.110762367804597</v>
+        <v>140.19960082098299</v>
       </c>
       <c r="I2">
-        <v>23.844450974702799</v>
+        <v>13.9526629160403</v>
       </c>
       <c r="J2">
         <v>110</v>
@@ -846,7 +847,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +891,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2">
@@ -916,7 +917,7 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3">
@@ -942,7 +943,7 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4">
@@ -968,7 +969,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5">
@@ -994,7 +995,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6">
@@ -1020,7 +1021,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7">
@@ -1038,41 +1039,41 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9">
@@ -1090,25 +1091,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1116,25 +1117,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>9.0999999999999998E-2</v>
@@ -1142,7 +1143,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -1150,23 +1151,24 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="H12">
-        <v>9.0999999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Files/nodes_branches_3.xlsx
+++ b/Files/nodes_branches_3.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\pandapower\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCBFB74-77E2-4997-B50F-B664343FD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="8835" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="2" r:id="rId1"/>
     <sheet name="branch" sheetId="1" r:id="rId2"/>
+    <sheet name="load" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>r</t>
   </si>
@@ -91,12 +93,33 @@
   </si>
   <si>
     <t>ktr</t>
+  </si>
+  <si>
+    <t>kti</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,11 +432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +444,7 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -464,8 +487,11 @@
       <c r="N1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,8 +534,11 @@
       <c r="N2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,8 +578,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -590,8 +622,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -631,8 +666,11 @@
       <c r="M5">
         <v>2479.3000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -672,8 +710,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -713,8 +754,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -754,8 +798,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -795,8 +842,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -835,6 +885,9 @@
       </c>
       <c r="M10">
         <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -843,11 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +908,7 @@
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -880,8 +933,11 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -906,8 +962,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -932,8 +991,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -958,8 +1020,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -984,8 +1049,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1010,8 +1078,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1036,8 +1107,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1062,8 +1136,11 @@
       <c r="H8">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1088,8 +1165,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1114,8 +1194,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1140,8 +1223,11 @@
       <c r="H11">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1164,6 +1250,9 @@
         <v>-50</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
@@ -1171,4 +1260,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADFE115-1C57-4C9D-96B9-89D9F59FB600}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.83</v>
+      </c>
+      <c r="C2">
+        <v>-0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.47</v>
+      </c>
+      <c r="E2">
+        <v>3.7</v>
+      </c>
+      <c r="F2">
+        <v>-7</v>
+      </c>
+      <c r="G2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.83</v>
+      </c>
+      <c r="C3">
+        <v>-0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.47</v>
+      </c>
+      <c r="E3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F3">
+        <v>-10.1</v>
+      </c>
+      <c r="G3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Files/nodes_branches_3.xlsx
+++ b/Files/nodes_branches_3.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\pandapower\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\pandapower\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCBFB74-77E2-4997-B50F-B664343FD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="2" r:id="rId1"/>
     <sheet name="branch" sheetId="1" r:id="rId2"/>
     <sheet name="load" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>r</t>
   </si>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,19 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -487,11 +486,8 @@
       <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,7 +498,7 @@
         <v>110</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -534,11 +530,8 @@
       <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,7 +542,7 @@
         <v>110</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,11 +571,8 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -593,7 +583,7 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,11 +612,8 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -637,7 +624,7 @@
         <v>110</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -666,11 +653,8 @@
       <c r="M5">
         <v>2479.3000000000002</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -681,7 +665,7 @@
         <v>110</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -710,11 +694,8 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -725,7 +706,7 @@
         <v>110</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -754,11 +735,8 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -769,7 +747,7 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -793,16 +771,13 @@
         <v>-10</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -813,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -842,11 +817,8 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -857,13 +829,13 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -885,9 +857,6 @@
       </c>
       <c r="M10">
         <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -896,19 +865,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -937,7 +906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -966,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -995,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1024,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1053,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1082,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1111,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1137,10 +1106,10 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="I8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1169,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1198,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1227,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1263,16 +1232,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADFE115-1C57-4C9D-96B9-89D9F59FB600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1318,7 +1287,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1341,7 +1310,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
